--- a/biology/Histoire de la zoologie et de la botanique/Frederick_Stuart_Church/Frederick_Stuart_Church.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Frederick_Stuart_Church/Frederick_Stuart_Church.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frederick Stuart Church (1842-1924) était un artiste américain, travaillant principalement comme illustrateur, et particulièrement connu pour ses représentations (souvent allégoriques) d’animaux.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît à Grand Rapids dans le Michigan. Son père y est une personnalité politique importante, ainsi qu’un homme de loi connu. À 13 ans, ses parents l’envoient travailler à Chicago dans l’entreprise American Express nouvellement fondée (1841), où il restera quatre années. Âgé de 19 ans au déclenchement de la guerre de Sécession, il sert dans l’Armée de l’Union. À son retour à Chicago, il décide de consacrer sa vie à l’art, et étudie le dessin dans l’atelier de Walter Shirlaw, à l’École de l'Art Institute of Chicago.
 En 1870, il part étudier à New York, où il passe le reste de sa vie. Il entre à l'Académie américaine de design, où il est formé par Lemuel Wilmarth (en). Il rejoint la Art Students League, dirigée par son ancien maître Walter Shirlaw. Il se rend souvent au cirque Barnum and Bailey (futur Ringling Bros. and Barnum &amp; Bailey Circus) ainsi qu’au zoo de Central Park, pour étudier et faire des croquis d’animaux.
@@ -547,10 +561,12 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Son travail le plus réputé est une illustration des Fables d'Ésope, comprenant une représentation des protagonistes humains et animaux de chaque fable, ainsi qu’une couverture pour l’ensemble.
-Une part importante des travaux de Church est conservée dans la collection permanente de la Fulton Decorative Arts Gallery, au Washington County Museum of Fine Arts à Hagerstown dans le Maryland. Certains autres éléments sont présentés au Dale and Rosie Horst de Newton au Kansas, qui les a prêté à la Fulton Gallery en 2003 pour une exposition majeure présentant un maximum de travaux originaux de Church et de publications dans lesquelles il fut publié. Le Resource Library Magazine consacré à l’exposition[2] met en valeur les éléments suivants :
+Une part importante des travaux de Church est conservée dans la collection permanente de la Fulton Decorative Arts Gallery, au Washington County Museum of Fine Arts à Hagerstown dans le Maryland. Certains autres éléments sont présentés au Dale and Rosie Horst de Newton au Kansas, qui les a prêté à la Fulton Gallery en 2003 pour une exposition majeure présentant un maximum de travaux originaux de Church et de publications dans lesquelles il fut publié. Le Resource Library Magazine consacré à l’exposition met en valeur les éléments suivants :
 Opening of the Season at the North Pole, paru dans le Harper's Weekly en décembre 1875, représentant un ours polaire faisant du patin à glace ;
 Flapjacks, paru dans le Harper's Weekly en décembre 1892 ;
 A New Year's Greeting, paru dans le Harper's Young People du 1er janvier 1889, représentant une cigogne transportant un bébé dans un panier ;
